--- a/data/mapping.xlsx
+++ b/data/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Desktop/05_NLP/NLP_Contract_Checker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A59625-5840-A843-87DD-2F05258309E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D54DE-0E23-5741-BF6E-8CDFDC491D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-5100" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
